--- a/biology/Histoire de la zoologie et de la botanique/Thaddeus_William_Harris/Thaddeus_William_Harris.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thaddeus_William_Harris/Thaddeus_William_Harris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thaddeus William Harris est un médecin et un entomologiste et un bibliothécaire américain, né le 12 novembre 1795 à Dorchester dans le Massachusetts et mort le 16 janvier 1856 à Cambridge dans le Massachusetts.
 De 1831 à sa mort en 1856, il est le directeur de la Bibliothèque de l'université Harvard.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aîné d’une fratrie de huit enfants, son père, Thaddeus Mason Harris est un pasteur de la First Church, sa mère est Mary née Dix. Le révérend Harris avait signé une Natural History of the Bible. Il étudie à Harvard et obtient son Bachelor of Arts en 1815 et son titre de docteur en médecine en 1820.
 Harris exerce la médecine à Milton dans le Massachusetts en association avec le docteur Amos Holbrook. Il se marie avec la plus jeune fille de ce dernier, Catherine, en 1824, union dont naîtront douze enfants. De 1820 à 1831,  Il se passionne alors pour l’étude des insectes et commence à rassembler une très riche collection. L’entomologie est encore balbutiante en Amérique du Nord et l’étude des insectes se fait dans une grande solitude et est souvent raillée. Aussi Harris entretient une correspondance suivie avec des spécialistes européens comme Edward Doubleday (1810-1849). Il correspond aussi avec des Américains comme Thomas Say (1787-1834), Frederick Ernst Melsheimer (1782/4-1873), Nicholas Marcellus Hentz (1797-1856) ou John Lawrence LeConte (1825-1883).
